--- a/Day16/working.xlsx
+++ b/Day16/working.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tesco-my.sharepoint.com/personal/craig_roberts_tesco_com/Documents/Dev/AdventOfCode/2021/day16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22724CF1-0853-914D-9C03-C79BF6B31979}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279CF4DD-E764-8B44-9D93-A191DE8E98EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{06ABC176-24F0-5840-98D4-2975E874B492}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="3" xr2:uid="{06ABC176-24F0-5840-98D4-2975E874B492}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1." sheetId="1" r:id="rId1"/>
     <sheet name="Example 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Part 2-0" sheetId="6" r:id="rId3"/>
+    <sheet name="Part 2-1" sheetId="7" r:id="rId4"/>
+    <sheet name="test" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +37,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F1208412-D940-4E41-A02D-71024CF182D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>100010100000000001001010100000000001101010000000000000101111010001111000</t>
   </si>
@@ -63,12 +100,33 @@
   <si>
     <t>LIT</t>
   </si>
+  <si>
+    <t>1100001000000000101101000000101010000010</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>C200B40A82</t>
+  </si>
+  <si>
+    <t>04005AC33890</t>
+  </si>
+  <si>
+    <t>000001000000000001011010110000110011100010010000</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,8 +140,27 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,9 +307,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -247,6 +327,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,10 +351,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,9 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3008C8C6-3A0B-2F40-9FFC-2694CFD539B6}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -816,7 +928,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="str">
@@ -828,279 +940,279 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:AJ2" si="0">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="E2" si="0">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:AK2" si="1">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="F2" si="1">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:AL2" si="2">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="G2" si="2">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:AM2" si="3">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="H2" si="3">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:AN2" si="4">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="I2" si="4">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:AO2" si="5">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="J2" si="5">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:AP2" si="6">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="K2" si="6">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f t="shared" ref="L2:AQ2" si="7">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="L2" si="7">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:AR2" si="8">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="M2" si="8">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:AS2" si="9">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="N2" si="9">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f t="shared" ref="O2:AT2" si="10">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="O2" si="10">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:AU2" si="11">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="P2" si="11">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f t="shared" ref="Q2:AV2" si="12">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="Q2" si="12">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f t="shared" ref="R2:AW2" si="13">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="R2" si="13">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f t="shared" ref="S2:AX2" si="14">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="S2" si="14">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="T2" s="1" t="str">
-        <f t="shared" ref="T2:AY2" si="15">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="T2" si="15">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="U2" s="1" t="str">
-        <f t="shared" ref="U2:AZ2" si="16">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="U2" si="16">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="V2" s="1" t="str">
-        <f t="shared" ref="V2:BA2" si="17">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="V2" si="17">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f t="shared" ref="W2:BB2" si="18">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="W2" si="18">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:BC2" si="19">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="X2" si="19">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:BD2" si="20">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="Y2" si="20">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="Z2" s="1" t="str">
-        <f t="shared" ref="Z2:BE2" si="21">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="Z2" si="21">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="1" t="str">
-        <f t="shared" ref="AA2:BV2" si="22">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AA2" si="22">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AB2" s="1" t="str">
-        <f t="shared" ref="AB2:BV2" si="23">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AB2" si="23">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="1" t="str">
-        <f t="shared" ref="AC2:BV2" si="24">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AC2" si="24">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AD2" s="1" t="str">
-        <f t="shared" ref="AD2:BV2" si="25">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AD2" si="25">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="1" t="str">
-        <f t="shared" ref="AE2:BV2" si="26">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AE2" si="26">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AF2" s="1" t="str">
-        <f t="shared" ref="AF2:BV2" si="27">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AF2" si="27">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="1" t="str">
-        <f t="shared" ref="AG2:BV2" si="28">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AG2" si="28">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AH2" s="1" t="str">
-        <f t="shared" ref="AH2:BV2" si="29">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AH2" si="29">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1" t="str">
-        <f t="shared" ref="AI2:BV2" si="30">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AI2" si="30">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:BV2" si="31">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AJ2" si="31">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" ref="AK2:BV2" si="32">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AK2" si="32">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AL2" s="1" t="str">
-        <f t="shared" ref="AL2:BV2" si="33">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AL2" si="33">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="1" t="str">
-        <f t="shared" ref="AM2:BV2" si="34">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AM2" si="34">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AN2" s="1" t="str">
-        <f t="shared" ref="AN2:BV2" si="35">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AN2" si="35">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:BV2" si="36">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AO2" si="36">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AP2" s="1" t="str">
-        <f t="shared" ref="AP2:BV2" si="37">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AP2" si="37">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="1" t="str">
-        <f t="shared" ref="AQ2:BV2" si="38">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AQ2" si="38">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AR2" s="1" t="str">
-        <f t="shared" ref="AR2:BV2" si="39">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AR2" si="39">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AS2" s="1" t="str">
-        <f t="shared" ref="AS2:BV2" si="40">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AS2" si="40">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AT2" s="1" t="str">
-        <f t="shared" ref="AT2:BV2" si="41">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AT2" si="41">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="1" t="str">
-        <f t="shared" ref="AU2:BV2" si="42">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AU2" si="42">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AV2" s="1" t="str">
-        <f t="shared" ref="AV2:BV2" si="43">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AV2" si="43">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AW2" s="1" t="str">
-        <f t="shared" ref="AW2:BV2" si="44">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AW2" si="44">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AX2" s="1" t="str">
-        <f t="shared" ref="AX2:BV2" si="45">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AX2" si="45">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="AY2" s="1" t="str">
-        <f t="shared" ref="AY2:BV2" si="46">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="AY2" si="46">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="AZ2" s="1" t="str">
-        <f t="shared" ref="AZ2:BV2" si="47">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="AZ2" si="47">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BA2" s="1" t="str">
-        <f t="shared" ref="BA2:BV2" si="48">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BA2" si="48">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BB2" s="1" t="str">
-        <f t="shared" ref="BB2:BV2" si="49">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BB2" si="49">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BC2" s="1" t="str">
-        <f t="shared" ref="BC2:BV2" si="50">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BC2" si="50">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BD2" s="1" t="str">
-        <f t="shared" ref="BD2:BV2" si="51">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BD2" si="51">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BE2" s="1" t="str">
-        <f t="shared" ref="BE2:BV2" si="52">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BE2" si="52">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BF2" s="1" t="str">
-        <f t="shared" ref="BF2:BV2" si="53">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BF2" si="53">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="1" t="str">
-        <f t="shared" ref="BG2:BV2" si="54">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BG2" si="54">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BH2" s="1" t="str">
-        <f t="shared" ref="BH2:BV2" si="55">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BH2" si="55">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BI2" s="1" t="str">
-        <f t="shared" ref="BI2:BV2" si="56">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BI2" si="56">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BJ2" s="1" t="str">
-        <f t="shared" ref="BJ2:BV2" si="57">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BJ2" si="57">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BK2" s="1" t="str">
-        <f t="shared" ref="BK2:BV2" si="58">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BK2" si="58">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BL2" s="1" t="str">
-        <f t="shared" ref="BL2:BV2" si="59">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BL2" si="59">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BM2" s="1" t="str">
-        <f t="shared" ref="BM2:BV2" si="60">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BM2" si="60">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BN2" s="1" t="str">
-        <f t="shared" ref="BN2:BV2" si="61">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BN2" si="61">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BO2" s="1" t="str">
-        <f t="shared" ref="BO2:BV2" si="62">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BO2" si="62">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BP2" s="1" t="str">
-        <f t="shared" ref="BP2:BV2" si="63">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BP2" si="63">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BQ2" s="1" t="str">
-        <f t="shared" ref="BQ2:BV2" si="64">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BQ2" si="64">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BR2" s="1" t="str">
-        <f t="shared" ref="BR2:BV2" si="65">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BR2" si="65">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BS2" s="1" t="str">
-        <f t="shared" ref="BS2:BV2" si="66">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BS2" si="66">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BT2" s="1" t="str">
-        <f t="shared" ref="BT2:BV2" si="67">MID($B$2,$D$1,1)</f>
+        <f t="shared" ref="BT2" si="67">MID($B$2,$D$1,1)</f>
         <v>0</v>
       </c>
       <c r="BU2" s="1" t="str">
-        <f t="shared" ref="BU2:BV2" si="68">MID($B$2,$C$1,1)</f>
+        <f t="shared" ref="BU2" si="68">MID($B$2,$C$1,1)</f>
         <v>1</v>
       </c>
       <c r="BV2" s="1" t="str">
@@ -1113,78 +1225,78 @@
         <f>LEN(B2)</f>
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="13" t="str">
         <f>MID(B2,C1,3)</f>
         <v>100</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="str">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="str">
         <f>MID(B2,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <f>BIN2DEC(C3)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="12">
         <f>BIN2DEC(F3)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="8" t="str">
         <f>MID(B2,I1,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="13" t="str">
         <f>MID(B2,J1,11)</f>
         <v>00000000001</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
         <f>LEN(J7)</f>
         <v>11</v>
       </c>
@@ -1195,219 +1307,219 @@
         <v>001010100000000001101010000000000000101111010001111000</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>MID($B$9,C1,1)</f>
+        <f t="shared" ref="C9:AH9" si="70">MID($B$9,C1,1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>MID($B$9,D1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>MID($B$9,E1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>MID($B$9,F1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>MID($B$9,G1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>MID($B$9,H1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>MID($B$9,I1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>MID($B$9,J1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>MID($B$9,K1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>MID($B$9,L1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>MID($B$9,M1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f>MID($B$9,N1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>MID($B$9,O1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>MID($B$9,P1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f>MID($B$9,Q1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>MID($B$9,R1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f>MID($B$9,S1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f>MID($B$9,T1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f>MID($B$9,U1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f>MID($B$9,V1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>MID($B$9,W1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>MID($B$9,X1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f>MID($B$9,Y1,1)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f>MID($B$9,Z1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="str">
-        <f>MID($B$9,AA1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="str">
-        <f>MID($B$9,AB1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="str">
-        <f>MID($B$9,AC1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AD9" s="1" t="str">
-        <f>MID($B$9,AD1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AE9" s="1" t="str">
-        <f>MID($B$9,AE1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AF9" s="1" t="str">
-        <f>MID($B$9,AF1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AG9" s="1" t="str">
-        <f>MID($B$9,AG1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="str">
-        <f>MID($B$9,AH1,1)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="str">
-        <f>MID($B$9,AI1,1)</f>
+        <f t="shared" ref="AI9:BD9" si="71">MID($B$9,AI1,1)</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f>MID($B$9,AJ1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f>MID($B$9,AK1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="str">
-        <f>MID($B$9,AL1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AM9" s="1" t="str">
-        <f>MID($B$9,AM1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="str">
-        <f>MID($B$9,AN1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f>MID($B$9,AO1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AP9" s="1" t="str">
-        <f>MID($B$9,AP1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="1" t="str">
-        <f>MID($B$9,AQ1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AR9" s="1" t="str">
-        <f>MID($B$9,AR1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AS9" s="1" t="str">
-        <f>MID($B$9,AS1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="str">
-        <f>MID($B$9,AT1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AU9" s="1" t="str">
-        <f>MID($B$9,AU1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AV9" s="1" t="str">
-        <f>MID($B$9,AV1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AW9" s="1" t="str">
-        <f>MID($B$9,AW1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AX9" s="1" t="str">
-        <f>MID($B$9,AX1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AY9" s="1" t="str">
-        <f>MID($B$9,AY1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="AZ9" s="1" t="str">
-        <f>MID($B$9,AZ1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BA9" s="1" t="str">
-        <f>MID($B$9,BA1,1)</f>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BB9" s="1" t="str">
-        <f>MID($B$9,BB1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BC9" s="1" t="str">
-        <f>MID($B$9,BC1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BD9" s="1" t="str">
-        <f>MID($B$9,BD1,1)</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -1416,65 +1528,65 @@
         <f>LEN(B9)</f>
         <v>54</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="13" t="str">
         <f>MID(B9,C1,3)</f>
         <v>001</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="str">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="str">
         <f>MID(B9,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <f>BIN2DEC(C10)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="12">
         <f>BIN2DEC(F10)</f>
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="8" t="str">
         <f>I9</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="13" t="str">
         <f>MID(B9,J1,11)</f>
         <v>00000000001</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="T15" s="1">
@@ -1492,143 +1604,143 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:AL16" si="70">MID($B$16,D1,1)</f>
+        <f t="shared" ref="D16:AL16" si="72">MID($B$16,D1,1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AA16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AD16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AG16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AI16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -1637,69 +1749,69 @@
         <f>LEN(B16)</f>
         <v>36</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="13" t="str">
         <f>MID(B16,C1,3)</f>
         <v>101</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="str">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="str">
         <f>MID(B16,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <f>BIN2DEC(C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="12">
         <f>BIN2DEC(F17)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="8" t="str">
         <f>I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J21" s="6" t="str">
+      <c r="J21" s="13" t="str">
         <f>MID(B16,I1,15)</f>
         <v>000000000000101</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="8"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="15"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="X22" s="1">
@@ -1718,69 +1830,81 @@
         <f>LEN(B23)</f>
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="13" t="str">
         <f>MID(B23,C1,3)</f>
         <v>110</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="str">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="13" t="str">
         <f>MID(B23,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <f>BIN2DEC(C24)</f>
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="12">
         <f>BIN2DEC(F24)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="I27" s="12" t="str">
         <f>MID(B23,I1,5)</f>
         <v>01111</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <f>LEN(I27)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="13">
         <f>BIN2DEC(I27)</f>
         <v>15</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="J14:T14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="J28:M28"/>
@@ -1790,18 +1914,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J14:T14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1812,6 +1924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D931454B-53DE-4643-AD38-04EEB585D3B7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DB50"/>
   <sheetViews>
     <sheetView topLeftCell="B5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2150,7 +2263,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="str">
@@ -2158,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:BJ2" si="0">MID($B$2,D1,1)</f>
+        <f t="shared" ref="D2:BG2" si="0">MID($B$2,D1,1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="1" t="str">
@@ -2575,29 +2688,29 @@
         <f>LEN(B2)</f>
         <v>104</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="13" t="str">
         <f>MID(B2,C1,3)</f>
         <v>011</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6" t="str">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="str">
         <f>MID(B2,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <f>BIN2DEC(C3)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -2606,50 +2719,50 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="12">
         <f>BIN2DEC(F3)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="8" t="str">
         <f>MID(B2,I1,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J7" s="6" t="str">
+      <c r="J7" s="13" t="str">
         <f>MID(B2,J1,11)</f>
         <v>00000000010</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
         <f>LEN(J7)</f>
         <v>11</v>
       </c>
@@ -2660,219 +2773,219 @@
         <v>00000000000000000101100001000101010110001011001000100000000010000100011000111000110100</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>MID($B$9,C1,1)</f>
+        <f t="shared" ref="C9:AH9" si="48">MID($B$9,C1,1)</f>
         <v>0</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>MID($B$9,D1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>MID($B$9,E1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>MID($B$9,F1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>MID($B$9,G1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>MID($B$9,H1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>MID($B$9,I1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>MID($B$9,J1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>MID($B$9,K1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>MID($B$9,L1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>MID($B$9,M1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f>MID($B$9,N1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>MID($B$9,O1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>MID($B$9,P1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f>MID($B$9,Q1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>MID($B$9,R1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f>MID($B$9,S1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f>MID($B$9,T1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f>MID($B$9,U1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f>MID($B$9,V1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>MID($B$9,W1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>MID($B$9,X1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f>MID($B$9,Y1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f>MID($B$9,Z1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="str">
-        <f>MID($B$9,AA1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="str">
-        <f>MID($B$9,AB1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="str">
-        <f>MID($B$9,AC1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AD9" s="1" t="str">
-        <f>MID($B$9,AD1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE9" s="1" t="str">
-        <f>MID($B$9,AE1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AF9" s="1" t="str">
-        <f>MID($B$9,AF1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AG9" s="1" t="str">
-        <f>MID($B$9,AG1,1)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="str">
-        <f>MID($B$9,AH1,1)</f>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AI9" s="1" t="str">
-        <f>MID($B$9,AI1,1)</f>
+        <f t="shared" ref="AI9:BD9" si="49">MID($B$9,AI1,1)</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f>MID($B$9,AJ1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f>MID($B$9,AK1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AL9" s="1" t="str">
-        <f>MID($B$9,AL1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AM9" s="1" t="str">
-        <f>MID($B$9,AM1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="str">
-        <f>MID($B$9,AN1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f>MID($B$9,AO1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AP9" s="1" t="str">
-        <f>MID($B$9,AP1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="1" t="str">
-        <f>MID($B$9,AQ1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AR9" s="1" t="str">
-        <f>MID($B$9,AR1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS9" s="1" t="str">
-        <f>MID($B$9,AS1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AT9" s="1" t="str">
-        <f>MID($B$9,AT1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AU9" s="1" t="str">
-        <f>MID($B$9,AU1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AV9" s="1" t="str">
-        <f>MID($B$9,AV1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AW9" s="1" t="str">
-        <f>MID($B$9,AW1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AX9" s="1" t="str">
-        <f>MID($B$9,AX1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY9" s="1" t="str">
-        <f>MID($B$9,AY1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AZ9" s="1" t="str">
-        <f>MID($B$9,AZ1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BA9" s="1" t="str">
-        <f>MID($B$9,BA1,1)</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="BB9" s="1" t="str">
-        <f>MID($B$9,BB1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BC9" s="1" t="str">
-        <f>MID($B$9,BC1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BD9" s="1" t="str">
-        <f>MID($B$9,BD1,1)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -2881,29 +2994,29 @@
         <f>LEN(B9)</f>
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="13" t="str">
         <f>MID(B9,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="str">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13" t="str">
         <f>MID(B9,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <f>BIN2DEC(C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -2912,41 +3025,41 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="12">
         <f>BIN2DEC(F10)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="8" t="str">
         <f>I9</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J14" s="6" t="str">
+      <c r="J14" s="13" t="str">
         <f>MID(B9,J1,15)</f>
         <v>000000000010110</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="8"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="X15" s="1">
@@ -2964,143 +3077,143 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:AL16" si="48">MID($B$16,D1,1)</f>
+        <f t="shared" ref="D16:AL16" si="50">MID($B$16,D1,1)</f>
         <v>0</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL16" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -3109,29 +3222,29 @@
         <f>LEN(B16)</f>
         <v>64</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="13" t="str">
         <f>MID(B16,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6" t="str">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="str">
         <f>MID(B16,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <f>BIN2DEC(C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
@@ -3140,38 +3253,38 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="12">
         <f>BIN2DEC(F17)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="13" t="str">
         <f>MID(B16,I1,5)</f>
         <v>01010</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I21" s="1">
         <f>LEN(I20)</f>
         <v>5</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="18">
         <f>BIN2DEC(I20)</f>
         <v>10</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="15"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
@@ -3184,29 +3297,29 @@
         <f>LEN(B23)</f>
         <v>53</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="13" t="str">
         <f>MID(B23,C1,3)</f>
         <v>101</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="str">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="13" t="str">
         <f>MID(B23,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <f>BIN2DEC(C24)</f>
         <v>5</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
@@ -3215,38 +3328,38 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="12">
         <f>BIN2DEC(F24)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" s="13" t="str">
         <f>MID(B23,I1,5)</f>
         <v>01011</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <f>LEN(I27)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="18">
         <f>BIN2DEC(I27)</f>
         <v>11</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="15"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="str">
@@ -3259,29 +3372,29 @@
         <f>LEN(B30)</f>
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C31" s="13" t="str">
         <f>MID(B30,C1,3)</f>
         <v>001</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6" t="str">
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="13" t="str">
         <f>MID(B30,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="16">
         <f>BIN2DEC(C31)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -3290,12 +3403,12 @@
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="12">
         <f>BIN2DEC(F31)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -3307,20 +3420,20 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="6" t="str">
+      <c r="J35" s="13" t="str">
         <f>MID(B30,J1,11)</f>
         <v>00000000010</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="8"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="15"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="T36" s="1">
@@ -3339,29 +3452,29 @@
         <f>LEN(B37)</f>
         <v>24</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C38" s="13" t="str">
         <f>MID(B37,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6" t="str">
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13" t="str">
         <f>MID(B37,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="16">
         <f>BIN2DEC(C38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -3370,38 +3483,38 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="12">
         <f>BIN2DEC(F38)</f>
         <v>4</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I41" s="13" t="str">
         <f>MID(B37,I1,5)</f>
         <v>01100</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="8"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I42" s="1">
         <f>LEN(I41)</f>
         <v>5</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="18">
         <f>BIN2DEC(I41)</f>
         <v>12</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="15"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="str">
@@ -3414,29 +3527,29 @@
         <f>LEN(B43)</f>
         <v>13</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C44" s="13" t="str">
         <f>MID(B43,C1,3)</f>
         <v>011</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6" t="str">
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13" t="str">
         <f>MID(B43,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="16">
         <f>BIN2DEC(C44)</f>
         <v>3</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
@@ -3445,38 +3558,38 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="12">
         <f>BIN2DEC(F44)</f>
         <v>4</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I47" s="13" t="str">
         <f>MID(B43,I1,5)</f>
         <v>01101</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="15"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I48" s="1">
         <f>LEN(I47)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="18">
         <f>BIN2DEC(I47)</f>
         <v>13</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="15"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="20"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="str">
@@ -3485,23 +3598,54 @@
       </c>
     </row>
     <row r="50" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="16">
+      <c r="C50" s="11">
         <f>C45+C39+C32+C25+C18+C11+C4</f>
         <v>12</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J35:T35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F40:H40"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="J48:M48"/>
     <mergeCell ref="I41:M41"/>
@@ -3510,38 +3654,2641 @@
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="F46:H46"/>
-    <mergeCell ref="J35:T35"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43BE8E-B3AE-164B-A677-6332A9713903}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:DB16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="101" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="106" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>MID($B$2,C1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:BO2" si="0">MID($B$2,D1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BP2" s="2" t="str">
+        <f t="shared" ref="BP2:DB2" si="1">MID($B$2,BP1,1)</f>
+        <v/>
+      </c>
+      <c r="BQ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <f>LEN(B2)</f>
+        <v>40</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>MID(B2,C1,3)</f>
+        <v>110</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="str">
+        <f>MID(B2,F1,3)</f>
+        <v>000</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <f>BIN2DEC(F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="2" t="str">
+        <f>I2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="str">
+        <f>RIGHT(B2,B3-T1)</f>
+        <v>1101000000101010000010</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" ref="C7:BD7" si="2">MID($B$7,C1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AM7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AN7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AO7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AR7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AS7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AT7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AU7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AW7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AX7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AY7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AZ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BA7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BB7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BC7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BD7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f>LEN(B7)</f>
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>MID(B7,C1,3)</f>
+        <v>110</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="str">
+        <f>MID(B7,F1,3)</f>
+        <v>100</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12">
+        <f>BIN2DEC(F8)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I10" s="13" t="str">
+        <f>MID(B7,I1,5)</f>
+        <v>00001</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="str">
+        <f>RIGHT(B7,B8-X1)</f>
+        <v/>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>MID($B$11,C1,1)</f>
+        <v/>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" ref="D11:AL11" si="3">MID($B$11,D1,1)</f>
+        <v/>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I11" s="2">
+        <f>LEN(I10)</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="22">
+        <f>BIN2DEC(I10)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AL11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="str">
+        <f>RIGHT(B7,B8-M1)</f>
+        <v>01010000010</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <f>LEN(B12)</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>MID(B12,C1,3)</f>
+        <v>010</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13" t="str">
+        <f>MID(B12,F1,3)</f>
+        <v>100</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12">
+        <f>BIN2DEC(F13)</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I15" s="13" t="str">
+        <f>MID(B12,I1,5)</f>
+        <v>00010</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I16" s="2">
+        <f>LEN(I15)</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="22">
+        <f>BIN2DEC(I15)</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB80200-1DC1-7644-9D7A-AB22B6D87636}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:DB18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="2.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="101" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="106" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:106" ht="26" x14ac:dyDescent="0.35">
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>MID($B$2,C1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:BO2" si="0">MID($B$2,D1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BO2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BP2" s="2" t="str">
+        <f t="shared" ref="BP2:DB2" si="1">MID($B$2,BP1,1)</f>
+        <v/>
+      </c>
+      <c r="BQ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BR2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BS2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BT2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BU2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BV2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BW2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BX2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BY2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="BZ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CA2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CB2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CC2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CD2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CE2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CF2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CG2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CH2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CI2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CJ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CK2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CL2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CM2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CN2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CO2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CP2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CQ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CR2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CS2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CT2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CU2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CV2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CW2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CX2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CY2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="CZ2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DA2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="DB2" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <f>LEN(B2)</f>
+        <v>48</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>MID(B2,C1,3)</f>
+        <v>000</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="str">
+        <f>MID(B2,F1,3)</f>
+        <v>001</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="F4" s="12">
+        <f>BIN2DEC(F3)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="2" t="str">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="str">
+        <f>RIGHT(B2,B3-X1)</f>
+        <v>10110000110011100010010000</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" ref="C7:BD7" si="2">MID($B$7,C1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AL7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AM7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AN7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AO7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AQ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AR7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AS7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AT7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AU7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AW7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AX7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AY7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AZ7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BA7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BB7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BC7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BD7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f>LEN(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>MID(B7,C1,3)</f>
+        <v>101</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13" t="str">
+        <f>MID(B7,F1,3)</f>
+        <v>100</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <f>BIN2DEC(F8)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I10" s="13" t="str">
+        <f>MID(B7,I1,5)</f>
+        <v>00110</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I11" s="8" t="str">
+        <f>LEFT(I10,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="str">
+        <f>RIGHT(I10,4)</f>
+        <v>0110</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="L12" s="26">
+        <f>BIN2DEC(I10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="str">
+        <f>RIGHT(B7,B8-M1)</f>
+        <v>011100010010000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <f>LEN(B13)</f>
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>MID(B13,C1,3)</f>
+        <v>011</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13" t="str">
+        <f>MID(B13,F1,3)</f>
+        <v>100</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12">
+        <f>BIN2DEC(F14)</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="I16" s="13" t="str">
+        <f>MID(B13,I1,5)</f>
+        <v>01001</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I17" s="8" t="str">
+        <f>LEFT(I16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13" t="str">
+        <f>RIGHT(I16,4)</f>
+        <v>1001</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="26">
+        <f>BIN2DEC(I16)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D539D6-B91B-3E4D-BA31-FEDE7D1843CC}">
+  <dimension ref="B1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>MID($B$2,C1,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:L2" si="0">MID($B$2,D1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>LEN(B2)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>HEX2BIN(C2)</f>
+        <v>1100</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>HEX2BIN(D2)</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="D3:L3" si="1">HEX2BIN(E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Day16/working.xlsx
+++ b/Day16/working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tesco-my.sharepoint.com/personal/craig_roberts_tesco_com/Documents/Dev/AdventOfCode/2021/day16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279CF4DD-E764-8B44-9D93-A191DE8E98EF}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9793F79-DF39-8542-A0C0-4E7FB85C9887}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="3" xr2:uid="{06ABC176-24F0-5840-98D4-2975E874B492}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>100010100000000001001010100000000001101010000000000000101111010001111000</t>
   </si>
@@ -119,7 +119,10 @@
     <t>000001000000000001011010110000110011100010010000</t>
   </si>
   <si>
-    <t>min</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>lit</t>
   </si>
 </sst>
 </file>
@@ -4971,7 +4974,7 @@
   <dimension ref="A1:DB18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5745,6 +5748,9 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="12">
         <f>BIN2DEC(F3)</f>
         <v>1</v>
@@ -6028,7 +6034,7 @@
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="12">
         <f>BIN2DEC(F8)</f>
@@ -6092,7 +6098,7 @@
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="12">
         <f>BIN2DEC(F14)</f>

--- a/Day16/working.xlsx
+++ b/Day16/working.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tesco-my.sharepoint.com/personal/craig_roberts_tesco_com/Documents/Dev/AdventOfCode/2021/day16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9793F79-DF39-8542-A0C0-4E7FB85C9887}"/>
+  <xr:revisionPtr revIDLastSave="856" documentId="8_{DE27C539-B4E9-034B-81D1-60109751F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7E11E6-14A3-1E4B-90A4-F1720E9A48D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="3" xr2:uid="{06ABC176-24F0-5840-98D4-2975E874B492}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="2" xr2:uid="{06ABC176-24F0-5840-98D4-2975E874B492}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1." sheetId="1" r:id="rId1"/>
     <sheet name="Example 2" sheetId="3" r:id="rId2"/>
     <sheet name="Part 2-0" sheetId="6" r:id="rId3"/>
     <sheet name="Part 2-1" sheetId="7" r:id="rId4"/>
-    <sheet name="test" sheetId="8" r:id="rId5"/>
+    <sheet name="rpn" sheetId="9" r:id="rId5"/>
+    <sheet name="test" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="26">
   <si>
     <t>100010100000000001001010100000000001101010000000000000101111010001111000</t>
   </si>
@@ -123,6 +124,33 @@
   </si>
   <si>
     <t>lit</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>hash [+] =&gt; [ [4,4] ]</t>
   </si>
 </sst>
 </file>
@@ -298,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +361,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,9 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,10 +408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,7 +728,7 @@
   <dimension ref="A1:BV28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J21" sqref="J21:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,40 +1262,40 @@
         <f>LEN(B2)</f>
         <v>72</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="18" t="str">
         <f>MID(B2,C1,3)</f>
         <v>100</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="str">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="str">
         <f>MID(B2,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="22">
         <f>BIN2DEC(C3)</f>
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="17">
         <f>BIN2DEC(F3)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1273,20 +1307,20 @@
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="18" t="str">
         <f>MID(B2,J1,11)</f>
         <v>00000000001</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="J8" s="10"/>
@@ -1531,40 +1565,40 @@
         <f>LEN(B9)</f>
         <v>54</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="18" t="str">
         <f>MID(B9,C1,3)</f>
         <v>001</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13" t="str">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18" t="str">
         <f>MID(B9,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="21">
         <f>BIN2DEC(C10)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="17">
         <f>BIN2DEC(F10)</f>
         <v>2</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -1576,20 +1610,20 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="18" t="str">
         <f>MID(B9,J1,11)</f>
         <v>00000000001</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="T15" s="1">
@@ -1752,40 +1786,40 @@
         <f>LEN(B16)</f>
         <v>36</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="18" t="str">
         <f>MID(B16,C1,3)</f>
         <v>101</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="str">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18" t="str">
         <f>MID(B16,F1,3)</f>
         <v>010</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="21">
         <f>BIN2DEC(C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="17">
         <f>BIN2DEC(F17)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
@@ -1797,24 +1831,24 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="18" t="str">
         <f>MID(B16,I1,15)</f>
         <v>000000000000101</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="X22" s="1">
@@ -1833,71 +1867,69 @@
         <f>LEN(B23)</f>
         <v>13</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="18" t="str">
         <f>MID(B23,C1,3)</f>
         <v>110</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13" t="str">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18" t="str">
         <f>MID(B23,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="21">
         <f>BIN2DEC(C24)</f>
         <v>6</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="17">
         <f>BIN2DEC(F24)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="12" t="str">
+      <c r="I27" s="17" t="str">
         <f>MID(B23,I1,5)</f>
         <v>01111</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <f>LEN(I27)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="18">
         <f>BIN2DEC(I27)</f>
         <v>15</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:E4"/>
@@ -1908,6 +1940,8 @@
     <mergeCell ref="J14:T14"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="J28:M28"/>
@@ -2691,29 +2725,29 @@
         <f>LEN(B2)</f>
         <v>104</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="18" t="str">
         <f>MID(B2,C1,3)</f>
         <v>011</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="str">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="str">
         <f>MID(B2,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="22">
         <f>BIN2DEC(C3)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -2722,12 +2756,12 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="17">
         <f>BIN2DEC(F3)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -2739,20 +2773,20 @@
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="18" t="str">
         <f>MID(B2,J1,11)</f>
         <v>00000000010</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="15"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="J8" s="10"/>
@@ -2997,29 +3031,29 @@
         <f>LEN(B9)</f>
         <v>86</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="18" t="str">
         <f>MID(B9,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13" t="str">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18" t="str">
         <f>MID(B9,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="21">
         <f>BIN2DEC(C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -3028,12 +3062,12 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="17">
         <f>BIN2DEC(F10)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -3045,24 +3079,24 @@
       </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="18" t="str">
         <f>MID(B9,J1,15)</f>
         <v>000000000010110</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="X15" s="1">
@@ -3225,29 +3259,29 @@
         <f>LEN(B16)</f>
         <v>64</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="18" t="str">
         <f>MID(B16,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="str">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18" t="str">
         <f>MID(B16,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="21">
         <f>BIN2DEC(C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
@@ -3256,38 +3290,38 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="17">
         <f>BIN2DEC(F17)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="13" t="str">
+      <c r="I20" s="18" t="str">
         <f>MID(B16,I1,5)</f>
         <v>01010</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I21" s="1">
         <f>LEN(I20)</f>
         <v>5</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="23">
         <f>BIN2DEC(I20)</f>
         <v>10</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
@@ -3300,29 +3334,29 @@
         <f>LEN(B23)</f>
         <v>53</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="18" t="str">
         <f>MID(B23,C1,3)</f>
         <v>101</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13" t="str">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18" t="str">
         <f>MID(B23,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="21">
         <f>BIN2DEC(C24)</f>
         <v>5</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
@@ -3331,38 +3365,38 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="17">
         <f>BIN2DEC(F24)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="13" t="str">
+      <c r="I27" s="18" t="str">
         <f>MID(B23,I1,5)</f>
         <v>01011</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <f>LEN(I27)</f>
         <v>5</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="23">
         <f>BIN2DEC(I27)</f>
         <v>11</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="str">
@@ -3375,29 +3409,29 @@
         <f>LEN(B30)</f>
         <v>42</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="18" t="str">
         <f>MID(B30,C1,3)</f>
         <v>001</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="13" t="str">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18" t="str">
         <f>MID(B30,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="21">
         <f>BIN2DEC(C31)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
@@ -3406,12 +3440,12 @@
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="17">
         <f>BIN2DEC(F31)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
@@ -3423,20 +3457,20 @@
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J35" s="13" t="str">
+      <c r="J35" s="18" t="str">
         <f>MID(B30,J1,11)</f>
         <v>00000000010</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="15"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="T36" s="1">
@@ -3455,29 +3489,29 @@
         <f>LEN(B37)</f>
         <v>24</v>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="18" t="str">
         <f>MID(B37,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13" t="str">
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18" t="str">
         <f>MID(B37,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="21">
         <f>BIN2DEC(C38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
@@ -3486,38 +3520,38 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="17">
         <f>BIN2DEC(F38)</f>
         <v>4</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="13" t="str">
+      <c r="I41" s="18" t="str">
         <f>MID(B37,I1,5)</f>
         <v>01100</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I42" s="1">
         <f>LEN(I41)</f>
         <v>5</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="23">
         <f>BIN2DEC(I41)</f>
         <v>12</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="20"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="str">
@@ -3530,29 +3564,29 @@
         <f>LEN(B43)</f>
         <v>13</v>
       </c>
-      <c r="C44" s="13" t="str">
+      <c r="C44" s="18" t="str">
         <f>MID(B43,C1,3)</f>
         <v>011</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13" t="str">
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="18" t="str">
         <f>MID(B43,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="21">
         <f>BIN2DEC(C44)</f>
         <v>3</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
@@ -3561,38 +3595,38 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="17">
         <f>BIN2DEC(F44)</f>
         <v>4</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="13" t="str">
+      <c r="I47" s="18" t="str">
         <f>MID(B43,I1,5)</f>
         <v>01101</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="15"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="20"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I48" s="1">
         <f>LEN(I47)</f>
         <v>5</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="23">
         <f>BIN2DEC(I47)</f>
         <v>13</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="str">
@@ -3618,8 +3652,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C4:E4"/>
@@ -3638,6 +3670,8 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="C32:E32"/>
@@ -3667,8 +3701,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:DB16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4002,7 +4036,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="str">
@@ -4427,59 +4461,74 @@
         <f>LEN(B2)</f>
         <v>40</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="18" t="str">
         <f>MID(B2,C1,3)</f>
         <v>110</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="str">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="str">
         <f>MID(B2,F1,3)</f>
         <v>000</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="17">
         <f>BIN2DEC(F3)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="2" t="str">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="8" t="str">
         <f>I2</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="J5" s="18" t="str">
+        <f>MID(B2,J1,11)</f>
+        <v>00000000010</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="18">
+        <f>BIN2DEC(10)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="10">
+        <f>LEN(J5)</f>
+        <v>11</v>
+      </c>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="str">
@@ -4708,18 +4757,18 @@
         <f>LEN(B7)</f>
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="18" t="str">
         <f>MID(B7,C1,3)</f>
         <v>110</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13" t="str">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18" t="str">
         <f>MID(B7,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -4728,22 +4777,22 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="17">
         <f>BIN2DEC(F8)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="18" t="str">
         <f>MID(B7,I1,5)</f>
         <v>00001</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="str">
@@ -4778,13 +4827,13 @@
         <f>LEN(I10)</f>
         <v>5</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="26">
         <f>BIN2DEC(I10)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4901,55 +4950,55 @@
         <f>LEN(B12)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="18" t="str">
         <f>MID(B12,C1,3)</f>
         <v>010</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13" t="str">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18" t="str">
         <f>MID(B12,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="17">
         <f>BIN2DEC(F13)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="I15" s="13" t="str">
+      <c r="I15" s="18" t="str">
         <f>MID(B12,I1,5)</f>
         <v>00010</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="I16" s="2">
         <f>LEN(I15)</f>
         <v>5</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="26">
         <f>BIN2DEC(I15)</f>
         <v>2</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="J11:M11"/>
@@ -4957,12 +5006,14 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J5:T5"/>
+    <mergeCell ref="J6:S6"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4973,7 +5024,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:DB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4989,7 +5040,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" ht="26" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2">
@@ -5309,7 +5360,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="str">
@@ -5734,29 +5785,29 @@
         <f>LEN(B2)</f>
         <v>48</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="18" t="str">
         <f>MID(B2,C1,3)</f>
         <v>000</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="str">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="str">
         <f>MID(B2,F1,3)</f>
         <v>001</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="17">
         <f>BIN2DEC(F3)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2" t="str">
         <f>I2</f>
         <v>0</v>
@@ -6019,55 +6070,55 @@
         <f>LEN(B7)</f>
         <v>26</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="18" t="str">
         <f>MID(B7,C1,3)</f>
         <v>101</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13" t="str">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18" t="str">
         <f>MID(B7,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="17">
         <f>BIN2DEC(F8)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="18" t="str">
         <f>MID(B7,I1,5)</f>
         <v>00110</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="I11" s="8" t="str">
         <f>LEFT(I10,1)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="18" t="str">
         <f>RIGHT(I10,4)</f>
         <v>0110</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="L12" s="26">
+      <c r="L12" s="14">
         <f>BIN2DEC(I10)</f>
         <v>6</v>
       </c>
@@ -6083,55 +6134,55 @@
         <f>LEN(B13)</f>
         <v>15</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="18" t="str">
         <f>MID(B13,C1,3)</f>
         <v>011</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="13" t="str">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18" t="str">
         <f>MID(B13,F1,3)</f>
         <v>100</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="17">
         <f>BIN2DEC(F14)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.2">
-      <c r="I16" s="13" t="str">
+      <c r="I16" s="18" t="str">
         <f>MID(B13,I1,5)</f>
         <v>01001</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I17" s="8" t="str">
         <f>LEFT(I16,1)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="J17" s="18" t="str">
         <f>RIGHT(I16,4)</f>
         <v>1001</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.2">
-      <c r="L18" s="26">
+      <c r="L18" s="14">
         <f>BIN2DEC(I16)</f>
         <v>9</v>
       </c>
@@ -6145,18 +6196,4973 @@
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F751E6FB-43D6-EE45-B93C-182DE8470E6E}">
+  <dimension ref="A1:BM269"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="16"/>
+    <col min="3" max="22" width="10.83203125" style="16" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="38" width="10.83203125" style="16" customWidth="1"/>
+    <col min="39" max="40" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.1640625" style="16" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" style="16" customWidth="1"/>
+    <col min="43" max="46" width="10.83203125" style="16" customWidth="1"/>
+    <col min="47" max="47" width="10.83203125" style="16"/>
+    <col min="48" max="50" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" style="16"/>
+    <col min="52" max="52" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.83203125" style="16"/>
+    <col min="54" max="54" width="12.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="C1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>1732</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>2814</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2814</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>77</v>
+      </c>
+      <c r="D7" s="16">
+        <v>77</v>
+      </c>
+      <c r="E7" s="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="H10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="I10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="K10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="N10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="O10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="P10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="R10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="S10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="T10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="U10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="V10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="W10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="X10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AI10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AJ10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AK10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AL10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AM10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AO10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AP10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AQ10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AR10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AS10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AT10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AU10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AV10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AW10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AX10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AY10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="AZ10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BA10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BB10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BC10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BD10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BE10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BF10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BG10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BH10" s="16">
+        <v>5579613</v>
+      </c>
+      <c r="BI10" s="16">
+        <v>5579613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="G11" s="16">
+        <f>A11</f>
+        <v>222253</v>
+      </c>
+      <c r="H11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="I11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="J11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="K11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="L11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="M11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="N11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="O11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="P11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="R11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="S11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="T11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="U11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="V11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="W11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="X11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AI11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AJ11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AL11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AM11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AO11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AP11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AQ11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AR11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AS11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AU11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AV11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AX11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AY11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="AZ11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BA11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BB11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BC11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BD11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BE11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BF11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BG11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BH11" s="16">
+        <v>222253</v>
+      </c>
+      <c r="BI11" s="16">
+        <v>222253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>8128</v>
+      </c>
+      <c r="G13" s="16">
+        <v>8128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>215</v>
+      </c>
+      <c r="G14" s="16">
+        <v>215</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:AM14" si="0">G14+G13</f>
+        <v>8343</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="V14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AD14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AE14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AF14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AG14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AH14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AI14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AJ14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AK14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AL14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AM14" s="16">
+        <f t="shared" si="0"/>
+        <v>8343</v>
+      </c>
+      <c r="AN14" s="16">
+        <f t="shared" ref="AN14:BI14" si="1">AM14+AM13</f>
+        <v>8343</v>
+      </c>
+      <c r="AO14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AP14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AQ14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AR14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AS14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AT14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AU14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AV14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AW14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AX14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AY14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="AZ14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BA14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BB14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BC14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BD14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BE14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BF14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BG14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BH14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+      <c r="BI14" s="16">
+        <f t="shared" si="1"/>
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>2767</v>
+      </c>
+      <c r="H17" s="16">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>1170</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1170</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>190083</v>
+      </c>
+      <c r="I19" s="16">
+        <v>190083</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="16">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA20" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY21" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW22" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV23" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS24" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR25" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP27" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO28" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL29" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK30" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE31" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD32" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>45889</v>
+      </c>
+      <c r="I40" s="16">
+        <v>45889</v>
+      </c>
+      <c r="J40" s="16">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>64077</v>
+      </c>
+      <c r="I41" s="16">
+        <v>64077</v>
+      </c>
+      <c r="J41" s="16">
+        <v>64077</v>
+      </c>
+      <c r="K41" s="16">
+        <f>J41</f>
+        <v>64077</v>
+      </c>
+      <c r="L41" s="16">
+        <f>K41</f>
+        <v>64077</v>
+      </c>
+      <c r="M41" s="16">
+        <f>L41</f>
+        <v>64077</v>
+      </c>
+      <c r="N41" s="16">
+        <f>M41</f>
+        <v>64077</v>
+      </c>
+      <c r="O41" s="16">
+        <f>N41</f>
+        <v>64077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>8</v>
+      </c>
+      <c r="K45" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>4</v>
+      </c>
+      <c r="K46" s="16">
+        <v>4</v>
+      </c>
+      <c r="L46" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>12</v>
+      </c>
+      <c r="L47" s="16">
+        <v>12</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="N47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>14</v>
+      </c>
+      <c r="M49" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>12</v>
+      </c>
+      <c r="M50" s="16">
+        <v>12</v>
+      </c>
+      <c r="N50" s="16">
+        <v>26</v>
+      </c>
+      <c r="O50" s="16">
+        <v>0</v>
+      </c>
+      <c r="P50" s="16">
+        <f>O41</f>
+        <v>64077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>7</v>
+      </c>
+      <c r="P51" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q51" s="16">
+        <f>P51+P50</f>
+        <v>64084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>244</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>244</v>
+      </c>
+      <c r="R52" s="16">
+        <v>244</v>
+      </c>
+      <c r="S52" s="16">
+        <v>244</v>
+      </c>
+      <c r="T52" s="16">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>13795</v>
+      </c>
+      <c r="R55" s="16">
+        <f>A55</f>
+        <v>13795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>2521</v>
+      </c>
+      <c r="R56" s="16">
+        <f>A56</f>
+        <v>2521</v>
+      </c>
+      <c r="S56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>24</v>
+      </c>
+      <c r="S57" s="16">
+        <v>24</v>
+      </c>
+      <c r="T57" s="16">
+        <v>0</v>
+      </c>
+      <c r="U57" s="16">
+        <v>0</v>
+      </c>
+      <c r="V57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>55</v>
+      </c>
+      <c r="U59" s="16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>7</v>
+      </c>
+      <c r="U60" s="16">
+        <v>7</v>
+      </c>
+      <c r="V60" s="16">
+        <v>7</v>
+      </c>
+      <c r="W60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>1624</v>
+      </c>
+      <c r="W61" s="16">
+        <v>1624</v>
+      </c>
+      <c r="X61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>7641219164</v>
+      </c>
+      <c r="X62" s="16">
+        <f>A62</f>
+        <v>7641219164</v>
+      </c>
+      <c r="Y62" s="16">
+        <f>X62</f>
+        <v>7641219164</v>
+      </c>
+      <c r="Z62" s="16">
+        <f>Y62</f>
+        <v>7641219164</v>
+      </c>
+      <c r="AA62" s="16">
+        <f t="shared" ref="AA62:AB62" si="2">Z62</f>
+        <v>7641219164</v>
+      </c>
+      <c r="AB62" s="16">
+        <f t="shared" si="2"/>
+        <v>7641219164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA63" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>51766673277</v>
+      </c>
+      <c r="Y64" s="16">
+        <f>A64</f>
+        <v>51766673277</v>
+      </c>
+      <c r="Z64" s="16">
+        <f>B64</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="16">
+        <f t="shared" ref="AA64" si="3">C64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z65" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y66" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y67" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y68" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z69" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC70" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>9</v>
+      </c>
+      <c r="AC72" s="16">
+        <v>9</v>
+      </c>
+      <c r="AD72" s="16">
+        <v>12</v>
+      </c>
+      <c r="AE72" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AE73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AF73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AG73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AH73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AI73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AJ73" s="16">
+        <v>14</v>
+      </c>
+      <c r="AK73" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ74" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI75" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF76" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
+        <v>10</v>
+      </c>
+      <c r="AF77" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
+        <v>4</v>
+      </c>
+      <c r="AF78" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG78" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>5</v>
+      </c>
+      <c r="AG79" s="16">
+        <v>5</v>
+      </c>
+      <c r="AH79" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH80" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
+        <v>12</v>
+      </c>
+      <c r="AH81" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
+        <v>13</v>
+      </c>
+      <c r="AH82" s="16">
+        <v>13</v>
+      </c>
+      <c r="AI82" s="16">
+        <v>25</v>
+      </c>
+      <c r="AJ82" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
+        <v>13</v>
+      </c>
+      <c r="AJ83" s="16">
+        <v>13</v>
+      </c>
+      <c r="AK83" s="16">
+        <v>13</v>
+      </c>
+      <c r="AL83" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>869064586</v>
+      </c>
+      <c r="AL84" s="16">
+        <f>A84</f>
+        <v>869064586</v>
+      </c>
+      <c r="AM84" s="16">
+        <v>11297839618</v>
+      </c>
+      <c r="AN84" s="16">
+        <v>11297839618</v>
+      </c>
+      <c r="AO84" s="16">
+        <v>11297839618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN85" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
+        <v>51</v>
+      </c>
+      <c r="AM86" s="16">
+        <v>51</v>
+      </c>
+      <c r="AN86" s="16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM87" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A88" s="16">
+        <v>89</v>
+      </c>
+      <c r="AM88" s="16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A89" s="16">
+        <v>72</v>
+      </c>
+      <c r="AM89" s="16">
+        <v>72</v>
+      </c>
+      <c r="AN89" s="16">
+        <f>AM89*AM88</f>
+        <v>6408</v>
+      </c>
+      <c r="AO89" s="16">
+        <f>AN89</f>
+        <v>6408</v>
+      </c>
+      <c r="AP89" s="16">
+        <f>AO89</f>
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
+        <v>208</v>
+      </c>
+      <c r="AP90" s="16">
+        <v>208</v>
+      </c>
+      <c r="AQ90" s="16">
+        <f>AP89</f>
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
+        <v>22</v>
+      </c>
+      <c r="AQ91" s="16">
+        <v>22</v>
+      </c>
+      <c r="AR91" s="16">
+        <f>AQ91*AQ90</f>
+        <v>140976</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
+        <v>183</v>
+      </c>
+      <c r="AR92" s="16">
+        <v>183</v>
+      </c>
+      <c r="AS92" s="16">
+        <f>AR91</f>
+        <v>140976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A93" s="16">
+        <v>9429241</v>
+      </c>
+      <c r="AS93" s="16">
+        <f>A93</f>
+        <v>9429241</v>
+      </c>
+      <c r="AT93" s="16">
+        <v>140976</v>
+      </c>
+      <c r="AU93" s="16">
+        <v>140976</v>
+      </c>
+      <c r="AV93" s="16">
+        <v>140976</v>
+      </c>
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU94" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT95" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A96" s="16">
+        <v>3295</v>
+      </c>
+      <c r="AT96" s="16">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A97" s="16">
+        <v>3295</v>
+      </c>
+      <c r="AT97" s="16">
+        <v>3295</v>
+      </c>
+      <c r="AU97" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A98" s="16">
+        <v>15637965</v>
+      </c>
+      <c r="AU98" s="16">
+        <v>15637965</v>
+      </c>
+      <c r="AV98" s="16">
+        <v>15637965</v>
+      </c>
+      <c r="AW98" s="16">
+        <f>AV98*AV93</f>
+        <v>2204577753840</v>
+      </c>
+    </row>
+    <row r="99" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A99" s="16">
+        <v>284106</v>
+      </c>
+      <c r="AW99" s="16">
+        <v>284106</v>
+      </c>
+      <c r="AX99" s="16">
+        <f>AW99+AW98</f>
+        <v>2204578037946</v>
+      </c>
+      <c r="AY99" s="16">
+        <f>AX99+AX98</f>
+        <v>2204578037946</v>
+      </c>
+    </row>
+    <row r="100" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX100" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A101" s="16">
+        <v>574274</v>
+      </c>
+      <c r="AX101" s="16">
+        <v>574274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A102" s="16">
+        <v>90</v>
+      </c>
+      <c r="AX102" s="16">
+        <v>90</v>
+      </c>
+      <c r="AY102" s="16">
+        <v>574274</v>
+      </c>
+      <c r="AZ102" s="16">
+        <f>AY102*AY99</f>
+        <v>1.2660318481634012E+18</v>
+      </c>
+      <c r="BA102" s="16">
+        <v>1.2660318481634012E+18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ103" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A104" s="16">
+        <v>242</v>
+      </c>
+      <c r="AZ104" s="16">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A105" s="16">
+        <v>168</v>
+      </c>
+      <c r="AZ105" s="16">
+        <v>168</v>
+      </c>
+      <c r="BA105" s="16">
+        <f>AZ105*AZ104</f>
+        <v>40656</v>
+      </c>
+      <c r="BB105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BC105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BD105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BE105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BF105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BG105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BH105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BI105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BJ105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BK105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BL105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+      <c r="BM105" s="16">
+        <v>5.1471790818931239E+22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BB106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BC106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BD106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BE106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BF106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BG106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BH106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BI106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BJ106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BK106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BL106" s="16">
+        <v>171</v>
+      </c>
+      <c r="BM106" s="16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB107" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC107" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB108" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A109" s="16">
+        <v>4</v>
+      </c>
+      <c r="BB109" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A110" s="16">
+        <v>2</v>
+      </c>
+      <c r="BB110" s="16">
+        <v>2</v>
+      </c>
+      <c r="BC110" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A111" s="16">
+        <v>14</v>
+      </c>
+      <c r="BC111" s="16">
+        <v>14</v>
+      </c>
+      <c r="BD111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BE111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BF111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BG111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BH111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BI111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BJ111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BK111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BL111" s="16">
+        <v>22</v>
+      </c>
+      <c r="BM111" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD112" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A113" s="16">
+        <v>5</v>
+      </c>
+      <c r="BD113" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A114" s="16">
+        <v>12</v>
+      </c>
+      <c r="BD114" s="16">
+        <v>12</v>
+      </c>
+      <c r="BE114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BF114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BG114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BH114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BI114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BJ114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BK114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BL114" s="16">
+        <v>60</v>
+      </c>
+      <c r="BM114" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BE115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BF115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BG115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BH115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BI115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BJ115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BK115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BL115" s="16">
+        <v>13</v>
+      </c>
+      <c r="BM115" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE116" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A117" s="16">
+        <v>4</v>
+      </c>
+      <c r="BE117" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A118" s="16">
+        <v>10</v>
+      </c>
+      <c r="BE118" s="16">
+        <v>10</v>
+      </c>
+      <c r="BF118" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A119" s="16">
+        <v>11</v>
+      </c>
+      <c r="BF119" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF120" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A121" s="16">
+        <v>14</v>
+      </c>
+      <c r="BF121" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A122" s="16">
+        <v>107</v>
+      </c>
+      <c r="BF122" s="16">
+        <v>107</v>
+      </c>
+      <c r="BG122" s="16">
+        <f>BF122*BF121</f>
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A123" s="16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A124" s="16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A125" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A126" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A127" s="16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A128" s="16">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16">
+        <v>177438679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="16">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="16">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="16">
+        <v>916122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="16">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="16">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="16">
+        <v>31803</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16">
+        <v>31803</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="16">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="16">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="16">
+        <v>54927350796</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="16">
+        <v>3622435068</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="16">
+        <v>52648</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="16">
+        <v>555874</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="16">
+        <v>15135494</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="16">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="16">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="16">
+        <v>6532356</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="16">
+        <v>35088</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="16">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="16">
+        <v>799377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="16">
+        <v>51182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="16">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="16">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="16">
+        <v>3900935624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="16">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="16">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="16">
+        <v>3929042919</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="16">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="16">
+        <v>434298</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="16">
+        <v>989105</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="16">
+        <v>871763</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="16">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="16">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="16">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="16">
+        <v>7671716</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="16">
+        <v>7671716</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="16">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="16">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="16">
+        <v>25502</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="16">
+        <v>37935</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="16">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="16">
+        <v>214416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="16">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="16">
+        <v>22585712350</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="16">
+        <v>854057</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="16">
+        <v>165570701122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="16">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="16">
+        <v>12786984</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="16">
+        <v>179081</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="16">
+        <v>3132045308</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="16">
+        <v>57455</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="16">
+        <v>590931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D539D6-B91B-3E4D-BA31-FEDE7D1843CC}">
   <dimension ref="B1:L3"/>
   <sheetViews>
@@ -6261,7 +11267,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="D3:L3" si="1">HEX2BIN(E2)</f>
+        <f t="shared" ref="E3:L3" si="1">HEX2BIN(E2)</f>
         <v>0</v>
       </c>
       <c r="F3" s="2" t="str">
